--- a/Results/Categorization/dp-fasttext.xlsx
+++ b/Results/Categorization/dp-fasttext.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1786">
   <si>
     <t>id</t>
   </si>
@@ -4027,418 +4027,373 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
     <t>AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|SERVICE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD||PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|</t>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE||AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES||PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD||SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD||FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|SERVICE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD||PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE||AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES||PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD|AMBIENCE</t>
@@ -5820,13 +5775,13 @@
         <v>1276</v>
       </c>
       <c r="F2" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="H2" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5846,13 +5801,13 @@
         <v>1277</v>
       </c>
       <c r="F3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="H3" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5872,13 +5827,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="H4" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5898,13 +5853,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="H5" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5924,13 +5879,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="H6" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5950,7 +5905,7 @@
         <v>1276</v>
       </c>
       <c r="H7" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5970,13 +5925,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="H8" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5996,13 +5951,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1342</v>
+        <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="H9" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6022,13 +5977,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="H10" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6048,13 +6003,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G11" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="H11" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6074,13 +6029,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G12" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="H12" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6100,13 +6055,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G13" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="H13" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6126,13 +6081,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="G14" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="H14" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6152,13 +6107,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="H15" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6178,13 +6133,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="G16" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="H16" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6204,13 +6159,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="H17" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6230,13 +6185,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="H18" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6256,7 +6211,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6276,7 +6231,7 @@
         <v>1276</v>
       </c>
       <c r="H20" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6296,7 +6251,7 @@
         <v>1285</v>
       </c>
       <c r="H21" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6316,13 +6271,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G22" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="H22" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6342,13 +6297,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G23" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="H23" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6374,7 +6329,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6394,13 +6349,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G25" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="H25" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6420,7 +6375,7 @@
         <v>1278</v>
       </c>
       <c r="H26" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6440,7 +6395,7 @@
         <v>1277</v>
       </c>
       <c r="H27" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6460,13 +6415,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="H28" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6486,7 +6441,7 @@
         <v>1279</v>
       </c>
       <c r="H29" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6506,13 +6461,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="G30" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="H30" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6532,13 +6487,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="H31" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6564,7 +6519,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6590,7 +6545,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6616,7 +6571,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6636,7 +6591,7 @@
         <v>1287</v>
       </c>
       <c r="H35" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6656,7 +6611,7 @@
         <v>1276</v>
       </c>
       <c r="H36" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6682,7 +6637,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6702,13 +6657,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="H38" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6728,13 +6683,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="G39" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="H39" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6754,7 +6709,7 @@
         <v>1285</v>
       </c>
       <c r="H40" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6774,13 +6729,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="G41" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="H41" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6800,13 +6755,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="G42" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="H42" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6826,13 +6781,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="G43" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="H43" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6858,7 +6813,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6878,13 +6833,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="G45" t="s">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="H45" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6904,7 +6859,7 @@
         <v>1289</v>
       </c>
       <c r="H46" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6924,7 +6879,7 @@
         <v>1277</v>
       </c>
       <c r="H47" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6944,7 +6899,7 @@
         <v>1279</v>
       </c>
       <c r="H48" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6964,13 +6919,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="H49" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6990,13 +6945,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="G50" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="H50" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7016,13 +6971,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="G51" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="H51" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7042,13 +6997,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G52" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="H52" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7068,13 +7023,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G53" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="H53" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7094,13 +7049,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
       <c r="H54" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7120,13 +7075,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="G55" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="H55" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7146,13 +7101,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="G56" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="H56" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7172,13 +7127,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G57" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="H57" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7198,13 +7153,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G58" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="H58" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7224,13 +7179,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G59" t="s">
-        <v>1517</v>
+        <v>1502</v>
       </c>
       <c r="H59" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7250,13 +7205,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="G60" t="s">
-        <v>1518</v>
+        <v>1503</v>
       </c>
       <c r="H60" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7276,13 +7231,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G61" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
       <c r="H61" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7302,13 +7257,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="G62" t="s">
-        <v>1520</v>
+        <v>1505</v>
       </c>
       <c r="H62" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7328,13 +7283,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G63" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="H63" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7354,13 +7309,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="H64" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7386,7 +7341,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7406,7 +7361,7 @@
         <v>1276</v>
       </c>
       <c r="H66" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7426,13 +7381,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="H67" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7452,7 +7407,7 @@
         <v>1294</v>
       </c>
       <c r="H68" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7472,7 +7427,7 @@
         <v>1295</v>
       </c>
       <c r="H69" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7492,7 +7447,7 @@
         <v>1278</v>
       </c>
       <c r="H70" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7512,13 +7467,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
       <c r="G71" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
       <c r="H71" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7538,13 +7493,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G72" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="H72" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7570,7 +7525,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7590,13 +7545,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G74" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="H74" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7616,13 +7571,13 @@
         <v>1276</v>
       </c>
       <c r="F75" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
       <c r="H75" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7642,13 +7597,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G76" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
       <c r="H76" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7668,13 +7623,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="G77" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
       <c r="H77" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7694,13 +7649,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G78" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="H78" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7720,7 +7675,7 @@
         <v>1278</v>
       </c>
       <c r="H79" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7746,7 +7701,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7766,7 +7721,7 @@
         <v>1278</v>
       </c>
       <c r="H81" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7792,7 +7747,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7812,7 +7767,7 @@
         <v>1278</v>
       </c>
       <c r="H83" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7832,13 +7787,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="G84" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="H84" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7858,13 +7813,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G85" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="H85" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7884,13 +7839,13 @@
         <v>1278</v>
       </c>
       <c r="F86" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="H86" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7910,13 +7865,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G87" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="H87" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7936,13 +7891,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G88" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="H88" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7962,13 +7917,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G89" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="H89" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7988,13 +7943,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="G90" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
       <c r="H90" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8014,13 +7969,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="G91" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
       <c r="H91" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8040,13 +7995,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1346</v>
+        <v>1369</v>
       </c>
       <c r="G92" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="H92" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8066,13 +8021,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="G93" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="H93" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8092,13 +8047,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="G94" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="H94" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8118,13 +8073,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="G95" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
       <c r="H95" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8144,13 +8099,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="G96" t="s">
-        <v>1543</v>
+        <v>1528</v>
       </c>
       <c r="H96" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8170,13 +8125,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="G97" t="s">
-        <v>1544</v>
+        <v>1529</v>
       </c>
       <c r="H97" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8196,13 +8151,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G98" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="H98" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8222,13 +8177,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="H99" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8248,13 +8203,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="H100" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8274,7 +8229,7 @@
         <v>1278</v>
       </c>
       <c r="H101" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8297,10 +8252,10 @@
         <v>1276</v>
       </c>
       <c r="G102" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
       <c r="H102" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8320,13 +8275,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G103" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
       <c r="H103" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8346,13 +8301,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G104" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="H104" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8378,7 +8333,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8398,13 +8353,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="H106" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8424,7 +8379,7 @@
         <v>1276</v>
       </c>
       <c r="H107" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8444,13 +8399,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="G108" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="H108" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8473,10 +8428,10 @@
         <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="H109" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8502,7 +8457,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8528,7 +8483,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8548,13 +8503,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="G112" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="H112" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8574,13 +8529,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1346</v>
+        <v>1369</v>
       </c>
       <c r="G113" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="H113" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8606,7 +8561,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8626,13 +8581,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G115" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="H115" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8652,13 +8607,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G116" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="H116" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8678,13 +8633,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G117" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="H117" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8704,13 +8659,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="G118" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="H118" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8730,13 +8685,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G119" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="H119" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8756,13 +8711,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="G120" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="H120" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8782,13 +8737,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="G121" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="H121" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8814,7 +8769,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8834,7 +8789,7 @@
         <v>1278</v>
       </c>
       <c r="H123" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8860,7 +8815,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8880,13 +8835,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1385</v>
+        <v>1352</v>
       </c>
       <c r="G125" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="H125" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8906,7 +8861,7 @@
         <v>1278</v>
       </c>
       <c r="H126" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8926,13 +8881,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="G127" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
       <c r="H127" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8958,7 +8913,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8978,13 +8933,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="G129" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="H129" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9004,13 +8959,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G130" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="H130" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9030,13 +8985,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="G131" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="H131" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9062,7 +9017,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9088,7 +9043,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9108,13 +9063,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="G134" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
       <c r="H134" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9134,13 +9089,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="G135" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="H135" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9160,13 +9115,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G136" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="H136" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9186,13 +9141,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G137" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="H137" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9218,7 +9173,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9238,13 +9193,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="G139" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="H139" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9264,13 +9219,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="G140" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="H140" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9290,13 +9245,13 @@
         <v>1278</v>
       </c>
       <c r="F141" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="H141" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9316,7 +9271,7 @@
         <v>1278</v>
       </c>
       <c r="H142" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9336,7 +9291,7 @@
         <v>1284</v>
       </c>
       <c r="H143" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9356,13 +9311,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1372</v>
+        <v>1386</v>
       </c>
       <c r="G144" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="H144" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9382,13 +9337,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="G145" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="H145" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9408,13 +9363,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="G146" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="H146" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9434,13 +9389,13 @@
         <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1367</v>
+        <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="H147" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9460,7 +9415,7 @@
         <v>1278</v>
       </c>
       <c r="H148" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9480,13 +9435,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="H149" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9506,13 +9461,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="G150" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="H150" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9532,13 +9487,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="G151" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="H151" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9558,13 +9513,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="G152" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="H152" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9584,13 +9539,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="G153" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="H153" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9610,13 +9565,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="G154" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="H154" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9636,7 +9591,7 @@
         <v>1278</v>
       </c>
       <c r="H155" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9662,7 +9617,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9682,13 +9637,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="G157" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="H157" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9708,13 +9663,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G158" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="H158" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9740,7 +9695,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9766,7 +9721,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9792,7 +9747,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9818,7 +9773,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9838,13 +9793,13 @@
         <v>1278</v>
       </c>
       <c r="F163" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="H163" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9870,7 +9825,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9890,13 +9845,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1385</v>
+        <v>1352</v>
       </c>
       <c r="G165" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="H165" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9919,10 +9874,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="H166" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9942,13 +9897,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G167" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="H167" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9968,13 +9923,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G168" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="H168" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10000,7 +9955,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10023,10 +9978,10 @@
         <v>1294</v>
       </c>
       <c r="G170" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
       <c r="H170" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10046,13 +10001,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="G171" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="H171" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10072,13 +10027,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="H172" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10098,7 +10053,7 @@
         <v>1296</v>
       </c>
       <c r="H173" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10118,7 +10073,7 @@
         <v>1277</v>
       </c>
       <c r="H174" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10138,13 +10093,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G175" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="H175" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10164,7 +10119,7 @@
         <v>1276</v>
       </c>
       <c r="H176" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10184,13 +10139,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G177" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="H177" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10210,13 +10165,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G178" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="H178" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10236,13 +10191,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="G179" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="H179" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10262,13 +10217,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="G180" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="H180" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10288,7 +10243,7 @@
         <v>1277</v>
       </c>
       <c r="H181" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10308,7 +10263,7 @@
         <v>1278</v>
       </c>
       <c r="H182" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10328,13 +10283,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G183" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="H183" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10354,7 +10309,7 @@
         <v>1278</v>
       </c>
       <c r="H184" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10374,13 +10329,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="G185" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="H185" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10406,7 +10361,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10432,7 +10387,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10458,7 +10413,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10484,7 +10439,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10510,7 +10465,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10530,13 +10485,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1403</v>
+        <v>1347</v>
       </c>
       <c r="G191" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="H191" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10556,13 +10511,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="G192" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="H192" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10582,13 +10537,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="G193" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="H193" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10608,13 +10563,13 @@
         <v>1278</v>
       </c>
       <c r="F194" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="H194" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10640,7 +10595,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10660,7 +10615,7 @@
         <v>1285</v>
       </c>
       <c r="H196" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10686,7 +10641,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10706,7 +10661,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10726,13 +10681,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1405</v>
+        <v>1369</v>
       </c>
       <c r="G199" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="H199" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10758,7 +10713,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10778,13 +10733,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G201" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="H201" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10804,13 +10759,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="G202" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="H202" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10836,7 +10791,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10856,13 +10811,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="G204" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="H204" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10882,13 +10837,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="H205" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10908,7 +10863,7 @@
         <v>1276</v>
       </c>
       <c r="H206" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10928,13 +10883,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="G207" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="H207" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10954,13 +10909,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G208" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="H208" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10980,13 +10935,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="G209" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="H209" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11006,7 +10961,7 @@
         <v>1278</v>
       </c>
       <c r="H210" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11026,13 +10981,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="G211" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="H211" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11052,13 +11007,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G212" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="H212" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11084,7 +11039,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11104,13 +11059,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="G214" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="H214" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11130,7 +11085,7 @@
         <v>1278</v>
       </c>
       <c r="H215" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11150,7 +11105,7 @@
         <v>1278</v>
       </c>
       <c r="H216" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11170,13 +11125,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G217" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="H217" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11196,13 +11151,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="G218" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="H218" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11222,13 +11177,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="G219" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="H219" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11248,13 +11203,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="G220" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="H220" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11274,13 +11229,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="G221" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="H221" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11300,13 +11255,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="G222" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="H222" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11326,13 +11281,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="G223" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="H223" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11352,13 +11307,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="G224" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="H224" t="s">
-        <v>1790</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11384,7 +11339,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11404,13 +11359,13 @@
         <v>1276</v>
       </c>
       <c r="F226" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="H226" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11430,7 +11385,7 @@
         <v>1285</v>
       </c>
       <c r="H227" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11453,10 +11408,10 @@
         <v>1294</v>
       </c>
       <c r="G228" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="H228" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11482,7 +11437,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11502,7 +11457,7 @@
         <v>1294</v>
       </c>
       <c r="H230" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11522,13 +11477,13 @@
         <v>1276</v>
       </c>
       <c r="F231" t="s">
-        <v>1402</v>
+        <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="H231" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11548,7 +11503,7 @@
         <v>1276</v>
       </c>
       <c r="H232" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11568,13 +11523,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G233" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="H233" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11594,7 +11549,7 @@
         <v>1285</v>
       </c>
       <c r="H234" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11614,13 +11569,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G235" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="H235" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11640,13 +11595,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="G236" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="H236" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11666,13 +11621,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1414</v>
+        <v>1391</v>
       </c>
       <c r="G237" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="H237" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11692,13 +11647,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G238" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="H238" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11718,13 +11673,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="G239" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="H239" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11744,13 +11699,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="G240" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="H240" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11770,13 +11725,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1417</v>
+        <v>1364</v>
       </c>
       <c r="G241" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="H241" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11796,13 +11751,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="G242" t="s">
-        <v>1631</v>
+        <v>1616</v>
       </c>
       <c r="H242" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11828,7 +11783,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11854,7 +11809,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11880,7 +11835,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11906,7 +11861,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11926,13 +11881,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="G247" t="s">
-        <v>1632</v>
+        <v>1617</v>
       </c>
       <c r="H247" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11952,7 +11907,7 @@
         <v>1276</v>
       </c>
       <c r="H248" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11972,13 +11927,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1355</v>
+        <v>1410</v>
       </c>
       <c r="G249" t="s">
-        <v>1633</v>
+        <v>1618</v>
       </c>
       <c r="H249" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11998,13 +11953,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>1634</v>
+        <v>1619</v>
       </c>
       <c r="H250" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12024,13 +11979,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G251" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="H251" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12053,7 +12008,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12073,13 +12028,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G253" t="s">
-        <v>1636</v>
+        <v>1621</v>
       </c>
       <c r="H253" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12105,7 +12060,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12125,13 +12080,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="G255" t="s">
-        <v>1637</v>
+        <v>1622</v>
       </c>
       <c r="H255" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12154,10 +12109,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="H256" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12177,13 +12132,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="H257" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12203,7 +12158,7 @@
         <v>1279</v>
       </c>
       <c r="H258" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12223,13 +12178,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="G259" t="s">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="H259" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12252,10 +12207,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="H260" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12281,7 +12236,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12307,7 +12262,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12327,13 +12282,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="G263" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="H263" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12359,7 +12314,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12379,13 +12334,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="G265" t="s">
-        <v>1641</v>
+        <v>1626</v>
       </c>
       <c r="H265" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12405,13 +12360,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="G266" t="s">
-        <v>1642</v>
+        <v>1627</v>
       </c>
       <c r="H266" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12431,13 +12386,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G267" t="s">
-        <v>1643</v>
+        <v>1628</v>
       </c>
       <c r="H267" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12457,7 +12412,7 @@
         <v>1286</v>
       </c>
       <c r="H268" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12477,13 +12432,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="G269" t="s">
-        <v>1644</v>
+        <v>1629</v>
       </c>
       <c r="H269" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12503,13 +12458,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1342</v>
+        <v>1417</v>
       </c>
       <c r="G270" t="s">
-        <v>1645</v>
+        <v>1630</v>
       </c>
       <c r="H270" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12529,13 +12484,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G271" t="s">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="H271" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12555,13 +12510,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="G272" t="s">
-        <v>1647</v>
+        <v>1632</v>
       </c>
       <c r="H272" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12581,13 +12536,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1426</v>
+        <v>1341</v>
       </c>
       <c r="G273" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="H273" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12607,13 +12562,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="G274" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="H274" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12633,13 +12588,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="G275" t="s">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="H275" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12659,13 +12614,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1651</v>
+        <v>1636</v>
       </c>
       <c r="H276" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12685,13 +12640,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1429</v>
+        <v>1346</v>
       </c>
       <c r="G277" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="H277" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12711,13 +12666,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="G278" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="H278" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12737,7 +12692,7 @@
         <v>1276</v>
       </c>
       <c r="H279" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12757,13 +12712,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G280" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="H280" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12783,7 +12738,7 @@
         <v>1276</v>
       </c>
       <c r="H281" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12803,13 +12758,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="G282" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="H282" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12835,7 +12790,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12855,13 +12810,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="G284" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="H284" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12881,13 +12836,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="G285" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="H285" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12907,7 +12862,7 @@
         <v>1276</v>
       </c>
       <c r="H286" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12933,7 +12888,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12953,7 +12908,7 @@
         <v>1276</v>
       </c>
       <c r="H288" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12973,13 +12928,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="G289" t="s">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="H289" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12999,13 +12954,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G290" t="s">
-        <v>1659</v>
+        <v>1644</v>
       </c>
       <c r="H290" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13025,13 +12980,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="G291" t="s">
-        <v>1660</v>
+        <v>1645</v>
       </c>
       <c r="H291" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13051,13 +13006,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="G292" t="s">
-        <v>1661</v>
+        <v>1646</v>
       </c>
       <c r="H292" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13077,13 +13032,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="H293" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13109,7 +13064,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13129,13 +13084,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="G295" t="s">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="H295" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13161,7 +13116,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13181,13 +13136,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="G297" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="H297" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13207,13 +13162,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G298" t="s">
-        <v>1665</v>
+        <v>1650</v>
       </c>
       <c r="H298" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13239,7 +13194,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13259,7 +13214,7 @@
         <v>1276</v>
       </c>
       <c r="H300" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13282,10 +13237,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="H301" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13305,13 +13260,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G302" t="s">
-        <v>1667</v>
+        <v>1652</v>
       </c>
       <c r="H302" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13331,7 +13286,7 @@
         <v>1276</v>
       </c>
       <c r="H303" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13357,7 +13312,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13383,7 +13338,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13403,13 +13358,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="G306" t="s">
-        <v>1668</v>
+        <v>1653</v>
       </c>
       <c r="H306" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13435,7 +13390,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13455,13 +13410,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="H308" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13481,13 +13436,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="G309" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="H309" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13513,7 +13468,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13536,10 +13491,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="H311" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13565,7 +13520,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13585,7 +13540,7 @@
         <v>1276</v>
       </c>
       <c r="H313" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13611,7 +13566,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13631,13 +13586,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G315" t="s">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="H315" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13657,13 +13612,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1403</v>
+        <v>1347</v>
       </c>
       <c r="G316" t="s">
-        <v>1673</v>
+        <v>1658</v>
       </c>
       <c r="H316" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13689,7 +13644,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13715,7 +13670,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13741,7 +13696,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13767,7 +13722,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13787,13 +13742,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G321" t="s">
-        <v>1674</v>
+        <v>1659</v>
       </c>
       <c r="H321" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13813,13 +13768,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G322" t="s">
-        <v>1675</v>
+        <v>1660</v>
       </c>
       <c r="H322" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13839,13 +13794,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="G323" t="s">
-        <v>1676</v>
+        <v>1661</v>
       </c>
       <c r="H323" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13865,13 +13820,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G324" t="s">
-        <v>1677</v>
+        <v>1662</v>
       </c>
       <c r="H324" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13897,7 +13852,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13923,7 +13878,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13943,13 +13898,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="G327" t="s">
-        <v>1678</v>
+        <v>1663</v>
       </c>
       <c r="H327" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13969,13 +13924,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="G328" t="s">
-        <v>1679</v>
+        <v>1664</v>
       </c>
       <c r="H328" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13995,13 +13950,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G329" t="s">
-        <v>1680</v>
+        <v>1665</v>
       </c>
       <c r="H329" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14021,13 +13976,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="G330" t="s">
-        <v>1681</v>
+        <v>1666</v>
       </c>
       <c r="H330" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14047,13 +14002,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="G331" t="s">
-        <v>1682</v>
+        <v>1667</v>
       </c>
       <c r="H331" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14073,13 +14028,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="G332" t="s">
-        <v>1683</v>
+        <v>1668</v>
       </c>
       <c r="H332" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14099,13 +14054,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="H333" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14125,13 +14080,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1684</v>
+        <v>1669</v>
       </c>
       <c r="H334" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14151,13 +14106,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G335" t="s">
-        <v>1685</v>
+        <v>1670</v>
       </c>
       <c r="H335" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14177,13 +14132,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="G336" t="s">
-        <v>1686</v>
+        <v>1671</v>
       </c>
       <c r="H336" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14203,13 +14158,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="G337" t="s">
-        <v>1687</v>
+        <v>1672</v>
       </c>
       <c r="H337" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14229,13 +14184,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="G338" t="s">
-        <v>1688</v>
+        <v>1673</v>
       </c>
       <c r="H338" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14261,7 +14216,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14284,10 +14239,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1689</v>
+        <v>1674</v>
       </c>
       <c r="H340" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14307,13 +14262,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G341" t="s">
-        <v>1690</v>
+        <v>1675</v>
       </c>
       <c r="H341" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14339,7 +14294,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14359,13 +14314,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="G343" t="s">
-        <v>1691</v>
+        <v>1676</v>
       </c>
       <c r="H343" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14385,13 +14340,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="G344" t="s">
-        <v>1692</v>
+        <v>1677</v>
       </c>
       <c r="H344" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14411,13 +14366,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="G345" t="s">
-        <v>1693</v>
+        <v>1678</v>
       </c>
       <c r="H345" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14443,7 +14398,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14463,13 +14418,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="G347" t="s">
-        <v>1694</v>
+        <v>1679</v>
       </c>
       <c r="H347" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14495,7 +14450,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14521,7 +14476,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14541,13 +14496,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="G350" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="H350" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14567,13 +14522,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1449</v>
+        <v>1341</v>
       </c>
       <c r="G351" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="H351" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14593,13 +14548,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="G352" t="s">
-        <v>1696</v>
+        <v>1681</v>
       </c>
       <c r="H352" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14619,13 +14574,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="G353" t="s">
-        <v>1697</v>
+        <v>1682</v>
       </c>
       <c r="H353" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14645,13 +14600,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G354" t="s">
-        <v>1698</v>
+        <v>1683</v>
       </c>
       <c r="H354" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14671,13 +14626,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G355" t="s">
-        <v>1699</v>
+        <v>1684</v>
       </c>
       <c r="H355" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14703,7 +14658,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14723,13 +14678,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1452</v>
+        <v>1366</v>
       </c>
       <c r="G357" t="s">
-        <v>1700</v>
+        <v>1685</v>
       </c>
       <c r="H357" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14749,13 +14704,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1402</v>
+        <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="H358" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14775,13 +14730,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1429</v>
+        <v>1406</v>
       </c>
       <c r="G359" t="s">
-        <v>1701</v>
+        <v>1686</v>
       </c>
       <c r="H359" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14801,13 +14756,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="H360" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14827,13 +14782,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G361" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="H361" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14853,13 +14808,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="G362" t="s">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="H362" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14879,13 +14834,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="G363" t="s">
-        <v>1704</v>
+        <v>1689</v>
       </c>
       <c r="H363" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14905,13 +14860,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="G364" t="s">
-        <v>1705</v>
+        <v>1690</v>
       </c>
       <c r="H364" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14931,13 +14886,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1454</v>
+        <v>1338</v>
       </c>
       <c r="G365" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
       <c r="H365" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -14963,7 +14918,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14989,7 +14944,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15009,13 +14964,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G368" t="s">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="H368" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15035,13 +14990,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1708</v>
+        <v>1693</v>
       </c>
       <c r="H369" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15061,13 +15016,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="G370" t="s">
-        <v>1709</v>
+        <v>1694</v>
       </c>
       <c r="H370" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15087,13 +15042,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G371" t="s">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="H371" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15113,13 +15068,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G372" t="s">
-        <v>1711</v>
+        <v>1696</v>
       </c>
       <c r="H372" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15139,13 +15094,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G373" t="s">
-        <v>1712</v>
+        <v>1697</v>
       </c>
       <c r="H373" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15165,7 +15120,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15185,13 +15140,13 @@
         <v>1285</v>
       </c>
       <c r="F375" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1713</v>
+        <v>1698</v>
       </c>
       <c r="H375" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15211,13 +15166,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G376" t="s">
-        <v>1714</v>
+        <v>1699</v>
       </c>
       <c r="H376" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15237,13 +15192,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="G377" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="H377" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15263,7 +15218,7 @@
         <v>1285</v>
       </c>
       <c r="H378" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15283,13 +15238,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="G379" t="s">
-        <v>1716</v>
+        <v>1701</v>
       </c>
       <c r="H379" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15315,7 +15270,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15335,7 +15290,7 @@
         <v>1322</v>
       </c>
       <c r="H381" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15355,13 +15310,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="G382" t="s">
-        <v>1717</v>
+        <v>1702</v>
       </c>
       <c r="H382" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15381,13 +15336,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="G383" t="s">
-        <v>1718</v>
+        <v>1703</v>
       </c>
       <c r="H383" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15410,10 +15365,10 @@
         <v>1449</v>
       </c>
       <c r="G384" t="s">
-        <v>1719</v>
+        <v>1704</v>
       </c>
       <c r="H384" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15433,13 +15388,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G385" t="s">
-        <v>1720</v>
+        <v>1705</v>
       </c>
       <c r="H385" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15459,13 +15414,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="G386" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="H386" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15485,7 +15440,7 @@
         <v>1294</v>
       </c>
       <c r="H387" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15505,13 +15460,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="G388" t="s">
-        <v>1722</v>
+        <v>1707</v>
       </c>
       <c r="H388" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15531,13 +15486,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1355</v>
+        <v>1410</v>
       </c>
       <c r="G389" t="s">
-        <v>1723</v>
+        <v>1708</v>
       </c>
       <c r="H389" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15557,7 +15512,7 @@
         <v>1295</v>
       </c>
       <c r="H390" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15577,13 +15532,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="G391" t="s">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="H391" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15603,7 +15558,7 @@
         <v>1285</v>
       </c>
       <c r="H392" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15629,7 +15584,7 @@
         <v>1046</v>
       </c>
       <c r="H393" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15649,13 +15604,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1463</v>
+        <v>1364</v>
       </c>
       <c r="G394" t="s">
-        <v>1725</v>
+        <v>1710</v>
       </c>
       <c r="H394" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15681,7 +15636,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15701,7 +15656,7 @@
         <v>1285</v>
       </c>
       <c r="H396" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15721,13 +15676,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G397" t="s">
-        <v>1714</v>
+        <v>1699</v>
       </c>
       <c r="H397" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15747,13 +15702,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="G398" t="s">
-        <v>1726</v>
+        <v>1711</v>
       </c>
       <c r="H398" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15779,7 +15734,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15799,13 +15754,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="G400" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="H400" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15825,13 +15780,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1727</v>
+        <v>1712</v>
       </c>
       <c r="H401" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15851,7 +15806,7 @@
         <v>1294</v>
       </c>
       <c r="H402" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15871,13 +15826,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1353</v>
+        <v>1454</v>
       </c>
       <c r="G403" t="s">
-        <v>1728</v>
+        <v>1713</v>
       </c>
       <c r="H403" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15897,13 +15852,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G404" t="s">
-        <v>1729</v>
+        <v>1714</v>
       </c>
       <c r="H404" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15923,13 +15878,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G405" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="H405" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15955,7 +15910,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -15975,7 +15930,7 @@
         <v>1294</v>
       </c>
       <c r="H407" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -15995,13 +15950,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1346</v>
+        <v>1369</v>
       </c>
       <c r="G408" t="s">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="H408" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16021,13 +15976,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G409" t="s">
-        <v>1731</v>
+        <v>1716</v>
       </c>
       <c r="H409" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16047,7 +16002,7 @@
         <v>1285</v>
       </c>
       <c r="H410" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16067,13 +16022,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="G411" t="s">
-        <v>1732</v>
+        <v>1717</v>
       </c>
       <c r="H411" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16093,7 +16048,7 @@
         <v>1285</v>
       </c>
       <c r="H412" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16113,13 +16068,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1465</v>
+        <v>1439</v>
       </c>
       <c r="G413" t="s">
-        <v>1733</v>
+        <v>1718</v>
       </c>
       <c r="H413" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16139,13 +16094,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G414" t="s">
-        <v>1734</v>
+        <v>1719</v>
       </c>
       <c r="H414" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16165,7 +16120,7 @@
         <v>1330</v>
       </c>
       <c r="H415" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16191,7 +16146,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16211,13 +16166,13 @@
         <v>1285</v>
       </c>
       <c r="F417" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G417" t="s">
-        <v>1735</v>
+        <v>1720</v>
       </c>
       <c r="H417" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16237,7 +16192,7 @@
         <v>1331</v>
       </c>
       <c r="H418" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16257,13 +16212,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="G419" t="s">
-        <v>1736</v>
+        <v>1721</v>
       </c>
       <c r="H419" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16283,7 +16238,7 @@
         <v>1285</v>
       </c>
       <c r="H420" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16303,13 +16258,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="G421" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="H421" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16329,13 +16284,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1355</v>
+        <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="H422" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16355,7 +16310,7 @@
         <v>1285</v>
       </c>
       <c r="H423" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16375,7 +16330,7 @@
         <v>1285</v>
       </c>
       <c r="H424" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16395,13 +16350,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="G425" t="s">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="H425" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16421,13 +16376,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="G426" t="s">
-        <v>1739</v>
+        <v>1724</v>
       </c>
       <c r="H426" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16447,13 +16402,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1467</v>
+        <v>1419</v>
       </c>
       <c r="G427" t="s">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="H427" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16476,10 +16431,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="H428" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16499,13 +16454,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="G429" t="s">
-        <v>1742</v>
+        <v>1727</v>
       </c>
       <c r="H429" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16525,7 +16480,7 @@
         <v>1294</v>
       </c>
       <c r="H430" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16545,7 +16500,7 @@
         <v>1297</v>
       </c>
       <c r="H431" t="s">
-        <v>1798</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16565,13 +16520,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="G432" t="s">
-        <v>1743</v>
+        <v>1728</v>
       </c>
       <c r="H432" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16597,7 +16552,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16617,13 +16572,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1470</v>
+        <v>1384</v>
       </c>
       <c r="G434" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="H434" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16643,13 +16598,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="G435" t="s">
-        <v>1745</v>
+        <v>1730</v>
       </c>
       <c r="H435" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16669,13 +16624,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1402</v>
+        <v>1276</v>
       </c>
       <c r="G436" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="H436" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16695,13 +16650,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1746</v>
+        <v>1731</v>
       </c>
       <c r="H437" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16727,7 +16682,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16750,10 +16705,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="H439" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16773,7 +16728,7 @@
         <v>1279</v>
       </c>
       <c r="H440" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16793,13 +16748,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="G441" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="H441" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16819,13 +16774,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1473</v>
+        <v>1407</v>
       </c>
       <c r="G442" t="s">
-        <v>1749</v>
+        <v>1734</v>
       </c>
       <c r="H442" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16848,10 +16803,10 @@
         <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1750</v>
+        <v>1735</v>
       </c>
       <c r="H443" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16871,13 +16826,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1355</v>
+        <v>1410</v>
       </c>
       <c r="G444" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
       <c r="H444" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16897,13 +16852,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1474</v>
+        <v>1442</v>
       </c>
       <c r="G445" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="H445" t="s">
-        <v>1799</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -16923,13 +16878,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1355</v>
+        <v>1410</v>
       </c>
       <c r="G446" t="s">
-        <v>1753</v>
+        <v>1738</v>
       </c>
       <c r="H446" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -16949,13 +16904,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="H447" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -16975,13 +16930,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G448" t="s">
-        <v>1755</v>
+        <v>1740</v>
       </c>
       <c r="H448" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17001,7 +16956,7 @@
         <v>1294</v>
       </c>
       <c r="H449" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17021,13 +16976,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="G450" t="s">
-        <v>1756</v>
+        <v>1741</v>
       </c>
       <c r="H450" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17047,13 +17002,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="G451" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="H451" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17073,13 +17028,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G452" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
       <c r="H452" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17099,13 +17054,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="G453" t="s">
-        <v>1759</v>
+        <v>1744</v>
       </c>
       <c r="H453" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17131,7 +17086,7 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17151,13 +17106,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="G455" t="s">
-        <v>1760</v>
+        <v>1745</v>
       </c>
       <c r="H455" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17177,13 +17132,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="G456" t="s">
-        <v>1677</v>
+        <v>1662</v>
       </c>
       <c r="H456" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17203,7 +17158,7 @@
         <v>1279</v>
       </c>
       <c r="H457" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17226,10 +17181,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1761</v>
+        <v>1746</v>
       </c>
       <c r="H458" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17249,10 +17204,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1762</v>
+        <v>1747</v>
       </c>
       <c r="H459" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17278,7 +17233,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17298,13 +17253,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="G461" t="s">
-        <v>1763</v>
+        <v>1748</v>
       </c>
       <c r="H461" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17324,13 +17279,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="G462" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="H462" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17353,10 +17308,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="H463" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
     </row>
   </sheetData>
